--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20119177\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Area\Eva-scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -84,12 +84,15 @@
   </si>
   <si>
     <t>Mile Stone 3</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,23 +466,29 @@
     <col min="1" max="1" width="112.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,7 +496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -495,7 +504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,15 +512,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -519,7 +531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -527,7 +539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -535,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,7 +555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -551,7 +563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -559,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -567,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -575,7 +587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -583,7 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +498,9 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -503,6 +509,9 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -545,6 +554,9 @@
       </c>
       <c r="B9" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -113,12 +113,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,14 +146,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,7 +475,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,65 +484,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -549,18 +572,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -635,6 +659,7 @@
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Partially Done</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +138,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -157,6 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,7 +488,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +529,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,11 +577,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,13 +607,20 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,23 +569,27 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,12 +628,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -684,6 +690,7 @@
     <hyperlink ref="A9" r:id="rId1"/>
     <hyperlink ref="A10" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -89,13 +89,13 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
     <t>Partially Done</t>
   </si>
   <si>
     <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Delivered</t>
   </si>
 </sst>
 </file>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
     <col min="1" max="1" width="112.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,8 +507,11 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -529,10 +535,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -543,8 +549,11 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -555,8 +564,11 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -567,8 +579,11 @@
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -579,8 +594,11 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -591,8 +609,11 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -603,8 +624,11 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,22 +636,22 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -637,7 +661,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -645,7 +669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -653,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -661,13 +685,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/Milestones.xlsx
+++ b/Milestones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>https://www.naatp.org/resources/addiction-industry-directory</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +650,9 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -659,26 +662,45 @@
         <v>18</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -693,17 +715,29 @@
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -719,5 +753,6 @@
     <hyperlink ref="A12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>